--- a/console/Elastic-Compute/Virtual-Machine/components/twoStepVerify/email.xlsx
+++ b/console/Elastic-Compute/Virtual-Machine/components/twoStepVerify/email.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\8月分配\SN205-LF0028-180821-console_Output-译文-ZZH处理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZYYT\Desktop\京东云\_JDC反馈\云主机反馈\Virtual-Machine-En_Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -54,9 +54,6 @@
     <t>send_again</t>
   </si>
   <si>
-    <t>Re-send s later</t>
-  </si>
-  <si>
     <t>code_is_wrong</t>
   </si>
   <si>
@@ -120,7 +117,63 @@
   </si>
   <si>
     <r>
-      <t>s</t>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>验证码错误，请重新输入</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>验证码格式错误，请重新输入</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>验证码已过期</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>获取验证码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>xxx s</t>
     </r>
     <r>
       <rPr>
@@ -131,62 +184,11 @@
       </rPr>
       <t>后重新发送</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>验证码错误，请重新输入</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>验证码格式错误，请重新输入</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>验证码已过期</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>获取验证码</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>'</t>
-    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Re-send xxx s later</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -586,7 +588,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -602,7 +604,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -613,7 +615,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -624,7 +626,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -635,7 +637,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -646,7 +648,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -657,43 +659,43 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -701,7 +703,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C1:C9 A1:A9" numberStoredAsText="1"/>
+    <ignoredError sqref="C1:C5 A1:A9 C7:C9" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>